--- a/math_proficiency_middle_schools_small_district_size_only.xlsx
+++ b/math_proficiency_middle_schools_small_district_size_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t># Math Proficiency - Children with Disabilities</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,11 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,6 +659,11 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -714,6 +729,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -779,6 +799,11 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -844,6 +869,11 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -909,6 +939,11 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -974,6 +1009,11 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1039,6 +1079,11 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1104,6 +1149,11 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1169,6 +1219,11 @@
       <c r="Q11" t="n">
         <v>2</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,6 +1289,11 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1299,6 +1359,11 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1364,6 +1429,11 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1429,6 +1499,11 @@
       <c r="Q15" t="n">
         <v>3</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1494,6 +1569,11 @@
       <c r="Q16" t="n">
         <v>1</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1559,6 +1639,11 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1624,6 +1709,11 @@
       <c r="Q18" t="n">
         <v>1</v>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1689,6 +1779,11 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1754,6 +1849,11 @@
       <c r="Q20" t="n">
         <v>2</v>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1819,6 +1919,11 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1884,6 +1989,11 @@
       <c r="Q22" t="n">
         <v>2</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1949,6 +2059,11 @@
       <c r="Q23" t="n">
         <v>1</v>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2014,6 +2129,11 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2079,6 +2199,11 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2144,6 +2269,11 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2209,6 +2339,11 @@
       <c r="Q27" t="n">
         <v>4</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2274,6 +2409,11 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2339,6 +2479,11 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2404,6 +2549,11 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2469,6 +2619,11 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2534,6 +2689,11 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2599,6 +2759,11 @@
       <c r="Q33" t="n">
         <v>4</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2664,6 +2829,11 @@
       <c r="Q34" t="n">
         <v>1</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2729,6 +2899,11 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2794,6 +2969,11 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2859,6 +3039,11 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2924,6 +3109,11 @@
       <c r="Q38" t="n">
         <v>1</v>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2989,6 +3179,11 @@
       <c r="Q39" t="n">
         <v>5</v>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3054,6 +3249,11 @@
       <c r="Q40" t="n">
         <v>1</v>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3119,6 +3319,11 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3184,6 +3389,11 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3249,6 +3459,11 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3313,6 +3528,11 @@
       </c>
       <c r="Q44" t="n">
         <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
       </c>
     </row>
   </sheetData>
